--- a/Dokumentaatio/Kaavoitus/Kaavat_validointisäännöt_julkinen.xlsx
+++ b/Dokumentaatio/Kaavoitus/Kaavat_validointisäännöt_julkinen.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarkoKauppi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC20C14-1DB4-4B77-AA32-5D982F44263F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24D9D78-4FB9-4492-996C-C03EECAAFCBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1950" windowWidth="28680" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="900" windowWidth="28680" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Taul1!$A:$G</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="415">
   <si>
     <t>Sääntö_ID_en</t>
   </si>
@@ -1002,27 +1005,6 @@
     <t>Kaavamääräys.lisätieto, Lisätieto.laji</t>
   </si>
   <si>
-    <t>lifecycle/req-codelist-interactionevent-codevalue-lifecycles-conformity</t>
-  </si>
-  <si>
-    <t>Vuorovaikutustapahtuman on oltava {0} tai {1}, jos elinkaari on {2} ja kaavalaji on {3} tai {4}</t>
-  </si>
-  <si>
-    <t>{0}=koodisto, {1} = elinkaaritila, {2} = kaavalaji, {3}=kaavalaji</t>
-  </si>
-  <si>
-    <t>valmistelu, kaavaehdotus, muutettu kaavaehdotus</t>
-  </si>
-  <si>
-    <t>Vuorovaikutustapahtuma.laji, KaavaAsia.elinkaaritila, KaavaAsia.kaavalaji</t>
-  </si>
-  <si>
-    <t>http://uri.suomi.fi/codelist/rytj/RY_KaavanVuorovaikutustapahtumanLaji/code/01</t>
-  </si>
-  <si>
-    <t>nameof(InteractionEventDto.InteractionEventType)} must be equal to 'Nähtävilläolo' when lifeCycleStatus is {spatialPlanLifeCycleStatus}</t>
-  </si>
-  <si>
     <t>lifecycle/req-codelist-regionalplan-display-proposal</t>
   </si>
   <si>
@@ -1194,6 +1176,9 @@
   </si>
   <si>
     <t>Vuorovaikutustapahtuman on oltava {0}, jos elinkaari on {1} ja kaavalaji on jotain muuta kuin {2} tai {3}</t>
+  </si>
+  <si>
+    <t>{0}=koodisto, {1} = elinkaaritila, {2} = kaavalaji, {3}=kaavalaji</t>
   </si>
   <si>
     <t>KaavaAsia.elinkaaritila, KaavaAsia.kaavalaji, Vuorovaikutustapahtuma.laji</t>
@@ -1400,12 +1385,23 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1420,9 +1416,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1437,26 +1431,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1552,8 +1527,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F64C0A7B-1497-46B1-980F-E124BFC6763D}" name="Table2" displayName="Table2" ref="A1:G471" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G471" xr:uid="{F64C0A7B-1497-46B1-980F-E124BFC6763D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F64C0A7B-1497-46B1-980F-E124BFC6763D}" name="Table2" displayName="Table2" ref="A1:G470" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G470" xr:uid="{F64C0A7B-1497-46B1-980F-E124BFC6763D}"/>
   <tableColumns count="7">
     <tableColumn id="12" xr3:uid="{241520FC-5577-4AC7-964B-BC588D195587}" name="Sääntö_ID_en" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{A02EC158-7780-4EB3-AF5D-A4AC62FDE966}" name="Selkokielinen paluuarvo" dataDxfId="5"/>
@@ -1854,22 +1829,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BL471"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BL107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="96.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="69" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="34" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="2"/>
-    <col min="6" max="6" width="40.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="79.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="45.28515625" style="6"/>
     <col min="9" max="16384" width="45.28515625" style="4"/>
   </cols>
@@ -1890,7 +1867,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1898,7 +1875,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:64" ht="45">
+    <row r="2" spans="1:64" ht="75">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +1888,7 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4">
@@ -1934,7 +1911,7 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="4">
@@ -2014,7 +1991,7 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="4">
@@ -2024,7 +2001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="30">
+    <row r="5" spans="1:64" ht="45">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2037,7 +2014,7 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="4">
@@ -2047,7 +2024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="60">
+    <row r="6" spans="1:64" ht="90">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2060,7 +2037,7 @@
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="4">
@@ -2083,7 +2060,7 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="4">
@@ -2093,7 +2070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="7" customFormat="1" ht="60">
+    <row r="8" spans="1:64" s="7" customFormat="1" ht="90">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -2106,7 +2083,7 @@
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="4">
@@ -2173,7 +2150,7 @@
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
     </row>
-    <row r="9" spans="1:64" s="7" customFormat="1">
+    <row r="9" spans="1:64" s="7" customFormat="1" ht="30">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -2186,7 +2163,7 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="4">
@@ -2253,7 +2230,7 @@
       <c r="BK9" s="4"/>
       <c r="BL9" s="4"/>
     </row>
-    <row r="10" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="10" spans="1:64" s="7" customFormat="1" ht="75">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -2266,7 +2243,7 @@
       <c r="D10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -2333,7 +2310,7 @@
       <c r="BK10" s="4"/>
       <c r="BL10" s="4"/>
     </row>
-    <row r="11" spans="1:64" s="7" customFormat="1" ht="60">
+    <row r="11" spans="1:64" s="7" customFormat="1" ht="75">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -2346,7 +2323,7 @@
       <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2413,7 +2390,7 @@
       <c r="BK11" s="4"/>
       <c r="BL11" s="4"/>
     </row>
-    <row r="12" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="12" spans="1:64" s="7" customFormat="1" ht="60">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
@@ -2426,7 +2403,7 @@
       <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -2493,7 +2470,7 @@
       <c r="BK12" s="4"/>
       <c r="BL12" s="4"/>
     </row>
-    <row r="13" spans="1:64" s="7" customFormat="1" ht="30">
+    <row r="13" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -2506,7 +2483,7 @@
       <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2573,7 +2550,7 @@
       <c r="BK13" s="4"/>
       <c r="BL13" s="4"/>
     </row>
-    <row r="14" spans="1:64" s="7" customFormat="1" ht="30">
+    <row r="14" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
@@ -2586,7 +2563,7 @@
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -2653,7 +2630,7 @@
       <c r="BK14" s="4"/>
       <c r="BL14" s="4"/>
     </row>
-    <row r="15" spans="1:64" s="7" customFormat="1" ht="30">
+    <row r="15" spans="1:64" s="7" customFormat="1" ht="60">
       <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
@@ -2666,7 +2643,7 @@
       <c r="D15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="4">
@@ -2733,7 +2710,7 @@
       <c r="BK15" s="4"/>
       <c r="BL15" s="4"/>
     </row>
-    <row r="16" spans="1:64" ht="30">
+    <row r="16" spans="1:64" ht="60">
       <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
@@ -2746,7 +2723,7 @@
       <c r="D16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="4">
@@ -2756,7 +2733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="7" customFormat="1" ht="30">
+    <row r="17" spans="1:64" s="7" customFormat="1" ht="60">
       <c r="A17" s="4" t="s">
         <v>78</v>
       </c>
@@ -2769,7 +2746,7 @@
       <c r="D17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="4">
@@ -2836,7 +2813,7 @@
       <c r="BK17" s="4"/>
       <c r="BL17" s="4"/>
     </row>
-    <row r="18" spans="1:64" ht="30">
+    <row r="18" spans="1:64" ht="45">
       <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
@@ -2849,7 +2826,7 @@
       <c r="D18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="4">
@@ -2859,7 +2836,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="30">
+    <row r="19" spans="1:64" ht="45">
       <c r="A19" s="4" t="s">
         <v>86</v>
       </c>
@@ -2872,7 +2849,7 @@
       <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -2882,7 +2859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="30">
+    <row r="20" spans="1:64" ht="60">
       <c r="A20" s="4" t="s">
         <v>86</v>
       </c>
@@ -2895,7 +2872,7 @@
       <c r="D20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -2905,7 +2882,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:64" s="7" customFormat="1" ht="30">
+    <row r="21" spans="1:64" s="7" customFormat="1" ht="60">
       <c r="A21" s="4" t="s">
         <v>86</v>
       </c>
@@ -2918,7 +2895,7 @@
       <c r="D21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -2985,7 +2962,7 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
     </row>
-    <row r="22" spans="1:64" ht="45">
+    <row r="22" spans="1:64" ht="75">
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
@@ -2998,7 +2975,7 @@
       <c r="D22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -3021,7 +2998,7 @@
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F23" s="4">
@@ -3101,7 +3078,7 @@
       <c r="D24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="4">
@@ -3111,7 +3088,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="30">
+    <row r="25" spans="1:64" ht="45">
       <c r="A25" s="4" t="s">
         <v>109</v>
       </c>
@@ -3124,7 +3101,7 @@
       <c r="D25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="4">
@@ -3134,7 +3111,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="60">
+    <row r="26" spans="1:64" ht="90">
       <c r="A26" s="4" t="s">
         <v>112</v>
       </c>
@@ -3147,7 +3124,7 @@
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F26" s="4">
@@ -3157,7 +3134,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="30">
+    <row r="27" spans="1:64" ht="45">
       <c r="A27" s="4" t="s">
         <v>116</v>
       </c>
@@ -3170,7 +3147,7 @@
       <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F27" s="4">
@@ -3180,7 +3157,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="45">
+    <row r="28" spans="1:64" ht="60">
       <c r="A28" s="4" t="s">
         <v>120</v>
       </c>
@@ -3193,7 +3170,7 @@
       <c r="D28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F28" s="4">
@@ -3203,7 +3180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="30">
+    <row r="29" spans="1:64" ht="60">
       <c r="A29" s="4" t="s">
         <v>124</v>
       </c>
@@ -3216,7 +3193,7 @@
       <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F29" s="4">
@@ -3226,7 +3203,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:64">
+    <row r="30" spans="1:64" ht="30">
       <c r="A30" s="4" t="s">
         <v>127</v>
       </c>
@@ -3239,7 +3216,7 @@
       <c r="D30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F30" s="4">
@@ -3249,7 +3226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="31" spans="1:64" s="7" customFormat="1" ht="75">
       <c r="A31" s="4" t="s">
         <v>131</v>
       </c>
@@ -3262,7 +3239,7 @@
       <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F31" s="4">
@@ -3342,7 +3319,7 @@
       <c r="D32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F32" s="4">
@@ -3422,7 +3399,7 @@
       <c r="D33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F33" s="4">
@@ -3489,7 +3466,7 @@
       <c r="BK33" s="4"/>
       <c r="BL33" s="4"/>
     </row>
-    <row r="34" spans="1:64" s="8" customFormat="1" ht="45">
+    <row r="34" spans="1:64" s="8" customFormat="1" ht="60">
       <c r="A34" s="4" t="s">
         <v>146</v>
       </c>
@@ -3502,7 +3479,7 @@
       <c r="D34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F34" s="4">
@@ -3569,7 +3546,7 @@
       <c r="BK34" s="4"/>
       <c r="BL34" s="4"/>
     </row>
-    <row r="35" spans="1:64" s="8" customFormat="1" ht="45">
+    <row r="35" spans="1:64" s="8" customFormat="1" ht="75">
       <c r="A35" s="4" t="s">
         <v>150</v>
       </c>
@@ -3582,7 +3559,7 @@
       <c r="D35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F35" s="4">
@@ -3649,7 +3626,7 @@
       <c r="BK35" s="4"/>
       <c r="BL35" s="4"/>
     </row>
-    <row r="36" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="36" spans="1:64" s="7" customFormat="1" ht="60">
       <c r="A36" s="4" t="s">
         <v>154</v>
       </c>
@@ -3662,7 +3639,7 @@
       <c r="D36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F36" s="4">
@@ -3742,7 +3719,7 @@
       <c r="D37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>0</v>
       </c>
       <c r="F37" s="4">
@@ -3752,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:64" ht="45">
+    <row r="38" spans="1:64" ht="60">
       <c r="A38" s="4" t="s">
         <v>159</v>
       </c>
@@ -3765,7 +3742,7 @@
       <c r="D38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F38" s="4">
@@ -3788,7 +3765,7 @@
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F39" s="4">
@@ -3868,7 +3845,7 @@
       <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F40" s="4">
@@ -3935,7 +3912,7 @@
       <c r="BK40" s="4"/>
       <c r="BL40" s="4"/>
     </row>
-    <row r="41" spans="1:64" ht="75">
+    <row r="41" spans="1:64" ht="105">
       <c r="A41" s="4" t="s">
         <v>171</v>
       </c>
@@ -3948,7 +3925,7 @@
       <c r="D41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F41" s="4">
@@ -3958,7 +3935,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="105">
+    <row r="42" spans="1:64" ht="180">
       <c r="A42" s="4" t="s">
         <v>175</v>
       </c>
@@ -3971,7 +3948,7 @@
       <c r="D42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F42" s="4">
@@ -3981,7 +3958,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="60">
+    <row r="43" spans="1:64" ht="90">
       <c r="A43" s="4" t="s">
         <v>179</v>
       </c>
@@ -3994,7 +3971,7 @@
       <c r="D43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F43" s="4">
@@ -4017,7 +3994,7 @@
       <c r="D44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -4027,7 +4004,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="45">
+    <row r="45" spans="1:64" ht="60">
       <c r="A45" s="4" t="s">
         <v>189</v>
       </c>
@@ -4040,7 +4017,7 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -4063,7 +4040,7 @@
       <c r="D46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -4073,7 +4050,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="45">
+    <row r="47" spans="1:64" ht="135">
       <c r="A47" s="4" t="s">
         <v>197</v>
       </c>
@@ -4086,7 +4063,7 @@
       <c r="D47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F47" s="4">
@@ -4096,7 +4073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="45">
+    <row r="48" spans="1:64" ht="135">
       <c r="A48" s="4" t="s">
         <v>201</v>
       </c>
@@ -4109,7 +4086,7 @@
       <c r="D48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F48" s="4">
@@ -4119,7 +4096,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="45">
+    <row r="49" spans="1:64" ht="135">
       <c r="A49" s="4" t="s">
         <v>204</v>
       </c>
@@ -4132,7 +4109,7 @@
       <c r="D49" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F49" s="4">
@@ -4142,7 +4119,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="45">
+    <row r="50" spans="1:64" ht="135">
       <c r="A50" s="4" t="s">
         <v>207</v>
       </c>
@@ -4155,7 +4132,7 @@
       <c r="D50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F50" s="4">
@@ -4165,7 +4142,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="51" spans="1:64" s="7" customFormat="1" ht="75">
       <c r="A51" s="4" t="s">
         <v>210</v>
       </c>
@@ -4178,7 +4155,7 @@
       <c r="D51" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F51" s="4">
@@ -4245,7 +4222,7 @@
       <c r="BK51" s="4"/>
       <c r="BL51" s="4"/>
     </row>
-    <row r="52" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="52" spans="1:64" s="7" customFormat="1" ht="75">
       <c r="A52" s="4" t="s">
         <v>214</v>
       </c>
@@ -4258,7 +4235,7 @@
       <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F52" s="4">
@@ -4338,7 +4315,7 @@
       <c r="D53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F53" s="4">
@@ -4418,7 +4395,7 @@
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F54" s="4">
@@ -4498,7 +4475,7 @@
       <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F55" s="4">
@@ -4508,7 +4485,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="56" spans="1:64" s="7" customFormat="1" ht="60">
       <c r="A56" s="4" t="s">
         <v>227</v>
       </c>
@@ -4521,7 +4498,7 @@
       <c r="D56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F56" s="4">
@@ -4588,7 +4565,7 @@
       <c r="BK56" s="4"/>
       <c r="BL56" s="4"/>
     </row>
-    <row r="57" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="57" spans="1:64" s="7" customFormat="1" ht="60">
       <c r="A57" s="4" t="s">
         <v>230</v>
       </c>
@@ -4601,7 +4578,7 @@
       <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F57" s="4">
@@ -4681,7 +4658,7 @@
       <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F58" s="4">
@@ -4748,7 +4725,7 @@
       <c r="BK58" s="4"/>
       <c r="BL58" s="4"/>
     </row>
-    <row r="59" spans="1:64" s="7" customFormat="1" ht="60">
+    <row r="59" spans="1:64" s="7" customFormat="1" ht="105">
       <c r="A59" s="4" t="s">
         <v>238</v>
       </c>
@@ -4761,7 +4738,7 @@
       <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F59" s="4">
@@ -4841,7 +4818,7 @@
       <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F60" s="4">
@@ -4921,7 +4898,7 @@
       <c r="D61" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F61" s="4">
@@ -5001,7 +4978,7 @@
       <c r="D62" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F62" s="4">
@@ -5068,7 +5045,7 @@
       <c r="BK62" s="4"/>
       <c r="BL62" s="4"/>
     </row>
-    <row r="63" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="63" spans="1:64" s="7" customFormat="1" ht="60">
       <c r="A63" s="4" t="s">
         <v>252</v>
       </c>
@@ -5081,7 +5058,7 @@
       <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F63" s="4">
@@ -5161,7 +5138,7 @@
       <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F64" s="4">
@@ -5184,7 +5161,7 @@
       <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F65" s="4">
@@ -5264,7 +5241,7 @@
       <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F66" s="4">
@@ -5344,7 +5321,7 @@
       <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F67" s="4">
@@ -5424,7 +5401,7 @@
       <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F68" s="4">
@@ -5504,7 +5481,7 @@
       <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F69" s="4">
@@ -5584,7 +5561,7 @@
       <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F70" s="4">
@@ -5664,7 +5641,7 @@
       <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F71" s="4">
@@ -5731,7 +5708,7 @@
       <c r="BK71" s="4"/>
       <c r="BL71" s="4"/>
     </row>
-    <row r="72" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="72" spans="1:64" s="7" customFormat="1" ht="75">
       <c r="A72" s="4" t="s">
         <v>282</v>
       </c>
@@ -5744,7 +5721,7 @@
       <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F72" s="4">
@@ -5824,7 +5801,7 @@
       <c r="D73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -5847,7 +5824,7 @@
       <c r="D74" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F74" s="4">
@@ -5927,7 +5904,7 @@
       <c r="D75" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="2">
         <v>0</v>
       </c>
       <c r="F75" s="4">
@@ -6007,7 +5984,7 @@
       <c r="D76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F76" s="4">
@@ -6087,7 +6064,7 @@
       <c r="D77" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F77" s="4">
@@ -6167,7 +6144,7 @@
       <c r="D78" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F78" s="4">
@@ -6234,7 +6211,7 @@
       <c r="BK78" s="4"/>
       <c r="BL78" s="4"/>
     </row>
-    <row r="79" spans="1:64" ht="45">
+    <row r="79" spans="1:64" ht="90">
       <c r="A79" s="4" t="s">
         <v>307</v>
       </c>
@@ -6247,7 +6224,7 @@
       <c r="D79" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="2">
         <v>0</v>
       </c>
       <c r="F79" s="4">
@@ -6270,7 +6247,7 @@
       <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="2" t="s">
         <v>312</v>
       </c>
       <c r="F80" s="4">
@@ -6350,7 +6327,7 @@
       <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="2" t="s">
         <v>316</v>
       </c>
       <c r="F81" s="4">
@@ -6417,7 +6394,7 @@
       <c r="BK81" s="4"/>
       <c r="BL81" s="4"/>
     </row>
-    <row r="82" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="82" spans="1:64" s="7" customFormat="1" ht="60">
       <c r="A82" s="4" t="s">
         <v>318</v>
       </c>
@@ -6430,7 +6407,7 @@
       <c r="D82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F82" s="4">
@@ -6510,7 +6487,7 @@
       <c r="D83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="2" t="s">
         <v>324</v>
       </c>
       <c r="F83" s="4">
@@ -6577,7 +6554,7 @@
       <c r="BK83" s="4"/>
       <c r="BL83" s="4"/>
     </row>
-    <row r="84" spans="1:64" s="9" customFormat="1" ht="30">
+    <row r="84" spans="1:64" s="7" customFormat="1" ht="120">
       <c r="A84" s="4" t="s">
         <v>325</v>
       </c>
@@ -6588,16 +6565,16 @@
         <v>327</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="4"/>
@@ -6657,27 +6634,27 @@
       <c r="BK84" s="4"/>
       <c r="BL84" s="4"/>
     </row>
-    <row r="85" spans="1:64" s="7" customFormat="1" ht="75">
+    <row r="85" spans="1:64" s="7" customFormat="1" ht="105">
       <c r="A85" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>335</v>
+      <c r="E85" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="4"/>
@@ -6737,27 +6714,27 @@
       <c r="BK85" s="4"/>
       <c r="BL85" s="4"/>
     </row>
-    <row r="86" spans="1:64" s="7" customFormat="1" ht="75">
+    <row r="86" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A86" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>340</v>
+      <c r="G86" s="2">
+        <v>0</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="4"/>
@@ -6817,27 +6794,27 @@
       <c r="BK86" s="4"/>
       <c r="BL86" s="4"/>
     </row>
-    <row r="87" spans="1:64" s="7" customFormat="1" ht="30">
+    <row r="87" spans="1:64" s="7" customFormat="1" ht="75">
       <c r="A87" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G87" s="2">
-        <v>0</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="4"/>
@@ -6897,127 +6874,127 @@
       <c r="BK87" s="4"/>
       <c r="BL87" s="4"/>
     </row>
-    <row r="88" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="88" spans="1:64" ht="60">
       <c r="A88" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G88" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G88" s="2" t="s">
+    </row>
+    <row r="89" spans="1:64" s="7" customFormat="1" ht="45">
+      <c r="A89" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
-      <c r="AA88" s="4"/>
-      <c r="AB88" s="4"/>
-      <c r="AC88" s="4"/>
-      <c r="AD88" s="4"/>
-      <c r="AE88" s="4"/>
-      <c r="AF88" s="4"/>
-      <c r="AG88" s="4"/>
-      <c r="AH88" s="4"/>
-      <c r="AI88" s="4"/>
-      <c r="AJ88" s="4"/>
-      <c r="AK88" s="4"/>
-      <c r="AL88" s="4"/>
-      <c r="AM88" s="4"/>
-      <c r="AN88" s="4"/>
-      <c r="AO88" s="4"/>
-      <c r="AP88" s="4"/>
-      <c r="AQ88" s="4"/>
-      <c r="AR88" s="4"/>
-      <c r="AS88" s="4"/>
-      <c r="AT88" s="4"/>
-      <c r="AU88" s="4"/>
-      <c r="AV88" s="4"/>
-      <c r="AW88" s="4"/>
-      <c r="AX88" s="4"/>
-      <c r="AY88" s="4"/>
-      <c r="AZ88" s="4"/>
-      <c r="BA88" s="4"/>
-      <c r="BB88" s="4"/>
-      <c r="BC88" s="4"/>
-      <c r="BD88" s="4"/>
-      <c r="BE88" s="4"/>
-      <c r="BF88" s="4"/>
-      <c r="BG88" s="4"/>
-      <c r="BH88" s="4"/>
-      <c r="BI88" s="4"/>
-      <c r="BJ88" s="4"/>
-      <c r="BK88" s="4"/>
-      <c r="BL88" s="4"/>
-    </row>
-    <row r="89" spans="1:64" ht="45">
-      <c r="A89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>357</v>
-      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+      <c r="AD89" s="4"/>
+      <c r="AE89" s="4"/>
+      <c r="AF89" s="4"/>
+      <c r="AG89" s="4"/>
+      <c r="AH89" s="4"/>
+      <c r="AI89" s="4"/>
+      <c r="AJ89" s="4"/>
+      <c r="AK89" s="4"/>
+      <c r="AL89" s="4"/>
+      <c r="AM89" s="4"/>
+      <c r="AN89" s="4"/>
+      <c r="AO89" s="4"/>
+      <c r="AP89" s="4"/>
+      <c r="AQ89" s="4"/>
+      <c r="AR89" s="4"/>
+      <c r="AS89" s="4"/>
+      <c r="AT89" s="4"/>
+      <c r="AU89" s="4"/>
+      <c r="AV89" s="4"/>
+      <c r="AW89" s="4"/>
+      <c r="AX89" s="4"/>
+      <c r="AY89" s="4"/>
+      <c r="AZ89" s="4"/>
+      <c r="BA89" s="4"/>
+      <c r="BB89" s="4"/>
+      <c r="BC89" s="4"/>
+      <c r="BD89" s="4"/>
+      <c r="BE89" s="4"/>
+      <c r="BF89" s="4"/>
+      <c r="BG89" s="4"/>
+      <c r="BH89" s="4"/>
+      <c r="BI89" s="4"/>
+      <c r="BJ89" s="4"/>
+      <c r="BK89" s="4"/>
+      <c r="BL89" s="4"/>
     </row>
     <row r="90" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A90" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>362</v>
+        <v>139</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
@@ -7082,19 +7059,19 @@
     </row>
     <row r="91" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A91" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>140</v>
+        <v>9</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -7162,10 +7139,10 @@
     </row>
     <row r="92" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A92" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -7173,8 +7150,8 @@
       <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>367</v>
+      <c r="E92" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="F92" s="4">
         <v>0</v>
@@ -7240,21 +7217,21 @@
       <c r="BK92" s="4"/>
       <c r="BL92" s="4"/>
     </row>
-    <row r="93" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="93" spans="1:64" s="7" customFormat="1" ht="75">
       <c r="A93" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C93" s="2">
-        <v>0</v>
+        <v>365</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>370</v>
+      <c r="E93" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -7320,24 +7297,24 @@
       <c r="BK93" s="4"/>
       <c r="BL93" s="4"/>
     </row>
-    <row r="94" spans="1:64" s="7" customFormat="1" ht="75">
+    <row r="94" spans="1:64" s="7" customFormat="1">
       <c r="A94" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0</v>
       </c>
       <c r="G94" s="2">
         <v>0</v>
@@ -7400,24 +7377,24 @@
       <c r="BK94" s="4"/>
       <c r="BL94" s="4"/>
     </row>
-    <row r="95" spans="1:64" s="7" customFormat="1">
+    <row r="95" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A95" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G95" s="2">
         <v>0</v>
@@ -7482,22 +7459,22 @@
     </row>
     <row r="96" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A96" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>382</v>
+        <v>139</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -7562,19 +7539,19 @@
     </row>
     <row r="97" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A97" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>140</v>
+        <v>57</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -7640,21 +7617,21 @@
       <c r="BK97" s="4"/>
       <c r="BL97" s="4"/>
     </row>
-    <row r="98" spans="1:64" s="7" customFormat="1" ht="30">
+    <row r="98" spans="1:64" s="9" customFormat="1" ht="45">
       <c r="A98" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>361</v>
+      <c r="E98" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
@@ -7720,21 +7697,21 @@
       <c r="BK98" s="4"/>
       <c r="BL98" s="4"/>
     </row>
-    <row r="99" spans="1:64" s="9" customFormat="1" ht="30">
+    <row r="99" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A99" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>389</v>
+      <c r="E99" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
@@ -7802,19 +7779,19 @@
     </row>
     <row r="100" spans="1:64" s="7" customFormat="1" ht="45">
       <c r="A100" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>361</v>
+        <v>139</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="F100" s="4">
         <v>0</v>
@@ -7880,21 +7857,21 @@
       <c r="BK100" s="4"/>
       <c r="BL100" s="4"/>
     </row>
-    <row r="101" spans="1:64" s="7" customFormat="1" ht="45">
+    <row r="101" spans="1:64" ht="30">
       <c r="A101" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C101" s="2">
-        <v>0</v>
+        <v>391</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>395</v>
+        <v>18</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="F101" s="4">
         <v>0</v>
@@ -7902,79 +7879,22 @@
       <c r="G101" s="2">
         <v>0</v>
       </c>
-      <c r="H101" s="6"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="Z101" s="4"/>
-      <c r="AA101" s="4"/>
-      <c r="AB101" s="4"/>
-      <c r="AC101" s="4"/>
-      <c r="AD101" s="4"/>
-      <c r="AE101" s="4"/>
-      <c r="AF101" s="4"/>
-      <c r="AG101" s="4"/>
-      <c r="AH101" s="4"/>
-      <c r="AI101" s="4"/>
-      <c r="AJ101" s="4"/>
-      <c r="AK101" s="4"/>
-      <c r="AL101" s="4"/>
-      <c r="AM101" s="4"/>
-      <c r="AN101" s="4"/>
-      <c r="AO101" s="4"/>
-      <c r="AP101" s="4"/>
-      <c r="AQ101" s="4"/>
-      <c r="AR101" s="4"/>
-      <c r="AS101" s="4"/>
-      <c r="AT101" s="4"/>
-      <c r="AU101" s="4"/>
-      <c r="AV101" s="4"/>
-      <c r="AW101" s="4"/>
-      <c r="AX101" s="4"/>
-      <c r="AY101" s="4"/>
-      <c r="AZ101" s="4"/>
-      <c r="BA101" s="4"/>
-      <c r="BB101" s="4"/>
-      <c r="BC101" s="4"/>
-      <c r="BD101" s="4"/>
-      <c r="BE101" s="4"/>
-      <c r="BF101" s="4"/>
-      <c r="BG101" s="4"/>
-      <c r="BH101" s="4"/>
-      <c r="BI101" s="4"/>
-      <c r="BJ101" s="4"/>
-      <c r="BK101" s="4"/>
-      <c r="BL101" s="4"/>
     </row>
     <row r="102" spans="1:64" ht="30">
       <c r="A102" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="F102" s="4">
         <v>0</v>
@@ -7985,88 +7905,88 @@
     </row>
     <row r="103" spans="1:64" ht="30">
       <c r="A103" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:64" ht="45">
+      <c r="A104" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F103" s="4">
-        <v>0</v>
-      </c>
-      <c r="G103" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:64" ht="30">
-      <c r="A104" s="4" t="s">
+      <c r="F104" s="4">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:64" ht="60">
+      <c r="A105" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C104" s="2">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E104" s="4" t="s">
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F104" s="4">
-        <v>0</v>
-      </c>
-      <c r="G104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:64" ht="45">
-      <c r="A105" s="4" t="s">
+      <c r="E105" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:64" ht="75">
+      <c r="A106" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C105" s="2">
-        <v>0</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E105" s="4" t="s">
+      <c r="B106" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F105" s="4">
-        <v>0</v>
-      </c>
-      <c r="G105" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:64" ht="30">
-      <c r="A106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="D106" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C106" s="2">
-        <v>0</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="F106" s="4">
         <v>0</v>
@@ -8077,1155 +7997,54 @@
     </row>
     <row r="107" spans="1:64" ht="30">
       <c r="A107" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="F107" s="4">
         <v>0</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:64">
-      <c r="A108" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C108" s="2">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F108" s="4">
-        <v>0</v>
-      </c>
-      <c r="G108" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:64">
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:64">
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:64">
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:64">
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="6:6">
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="6:6">
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="6:6">
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="6:6">
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="6:6">
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="6:6">
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="6:6">
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="6:6">
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="6:6">
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="6:6">
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="6:6">
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="6:6">
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="6:6">
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="6:6">
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="6:6">
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="6:6">
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="6:6">
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="6:6">
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="6:6">
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="6:6">
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="6:6">
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="6:6">
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="6:6">
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="6:6">
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="6:6">
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="6:6">
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="6:6">
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="6:6">
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="6:6">
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="6:6">
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="6:6">
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="6:6">
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="6:6">
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="6:6">
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="6:6">
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="6:6">
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="6:6">
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="6:6">
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="6:6">
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="6:6">
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="6:6">
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="6:6">
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="6:6">
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="6:6">
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="6:6">
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="6:6">
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="6:6">
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="6:6">
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="6:6">
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="6:6">
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="6:6">
-      <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="6:6">
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="6:6">
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="6:6">
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="6:6">
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="6:6">
-      <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="6:6">
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="6:6">
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="6:6">
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="6:6">
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="6:6">
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="6:6">
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="6:6">
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="6:6">
-      <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="6:6">
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="6:6">
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="6:6">
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="6:6">
-      <c r="F180" s="2"/>
-    </row>
-    <row r="181" spans="6:6">
-      <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="6:6">
-      <c r="F182" s="2"/>
-    </row>
-    <row r="183" spans="6:6">
-      <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="6:6">
-      <c r="F184" s="2"/>
-    </row>
-    <row r="185" spans="6:6">
-      <c r="F185" s="2"/>
-    </row>
-    <row r="186" spans="6:6">
-      <c r="F186" s="2"/>
-    </row>
-    <row r="187" spans="6:6">
-      <c r="F187" s="2"/>
-    </row>
-    <row r="188" spans="6:6">
-      <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="6:6">
-      <c r="F189" s="2"/>
-    </row>
-    <row r="190" spans="6:6">
-      <c r="F190" s="2"/>
-    </row>
-    <row r="191" spans="6:6">
-      <c r="F191" s="2"/>
-    </row>
-    <row r="192" spans="6:6">
-      <c r="F192" s="2"/>
-    </row>
-    <row r="193" spans="6:6">
-      <c r="F193" s="2"/>
-    </row>
-    <row r="194" spans="6:6">
-      <c r="F194" s="2"/>
-    </row>
-    <row r="195" spans="6:6">
-      <c r="F195" s="2"/>
-    </row>
-    <row r="196" spans="6:6">
-      <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="6:6">
-      <c r="F197" s="2"/>
-    </row>
-    <row r="198" spans="6:6">
-      <c r="F198" s="2"/>
-    </row>
-    <row r="199" spans="6:6">
-      <c r="F199" s="2"/>
-    </row>
-    <row r="200" spans="6:6">
-      <c r="F200" s="2"/>
-    </row>
-    <row r="201" spans="6:6">
-      <c r="F201" s="2"/>
-    </row>
-    <row r="202" spans="6:6">
-      <c r="F202" s="2"/>
-    </row>
-    <row r="203" spans="6:6">
-      <c r="F203" s="2"/>
-    </row>
-    <row r="204" spans="6:6">
-      <c r="F204" s="2"/>
-    </row>
-    <row r="205" spans="6:6">
-      <c r="F205" s="2"/>
-    </row>
-    <row r="206" spans="6:6">
-      <c r="F206" s="2"/>
-    </row>
-    <row r="207" spans="6:6">
-      <c r="F207" s="2"/>
-    </row>
-    <row r="208" spans="6:6">
-      <c r="F208" s="2"/>
-    </row>
-    <row r="209" spans="6:6">
-      <c r="F209" s="2"/>
-    </row>
-    <row r="210" spans="6:6">
-      <c r="F210" s="2"/>
-    </row>
-    <row r="211" spans="6:6">
-      <c r="F211" s="2"/>
-    </row>
-    <row r="212" spans="6:6">
-      <c r="F212" s="2"/>
-    </row>
-    <row r="213" spans="6:6">
-      <c r="F213" s="2"/>
-    </row>
-    <row r="214" spans="6:6">
-      <c r="F214" s="2"/>
-    </row>
-    <row r="215" spans="6:6">
-      <c r="F215" s="2"/>
-    </row>
-    <row r="216" spans="6:6">
-      <c r="F216" s="2"/>
-    </row>
-    <row r="217" spans="6:6">
-      <c r="F217" s="2"/>
-    </row>
-    <row r="218" spans="6:6">
-      <c r="F218" s="2"/>
-    </row>
-    <row r="219" spans="6:6">
-      <c r="F219" s="2"/>
-    </row>
-    <row r="220" spans="6:6">
-      <c r="F220" s="2"/>
-    </row>
-    <row r="221" spans="6:6">
-      <c r="F221" s="2"/>
-    </row>
-    <row r="222" spans="6:6">
-      <c r="F222" s="2"/>
-    </row>
-    <row r="223" spans="6:6">
-      <c r="F223" s="2"/>
-    </row>
-    <row r="224" spans="6:6">
-      <c r="F224" s="2"/>
-    </row>
-    <row r="225" spans="6:6">
-      <c r="F225" s="2"/>
-    </row>
-    <row r="226" spans="6:6">
-      <c r="F226" s="2"/>
-    </row>
-    <row r="227" spans="6:6">
-      <c r="F227" s="2"/>
-    </row>
-    <row r="228" spans="6:6">
-      <c r="F228" s="2"/>
-    </row>
-    <row r="229" spans="6:6">
-      <c r="F229" s="2"/>
-    </row>
-    <row r="230" spans="6:6">
-      <c r="F230" s="2"/>
-    </row>
-    <row r="231" spans="6:6">
-      <c r="F231" s="2"/>
-    </row>
-    <row r="232" spans="6:6">
-      <c r="F232" s="2"/>
-    </row>
-    <row r="233" spans="6:6">
-      <c r="F233" s="2"/>
-    </row>
-    <row r="234" spans="6:6">
-      <c r="F234" s="2"/>
-    </row>
-    <row r="235" spans="6:6">
-      <c r="F235" s="2"/>
-    </row>
-    <row r="236" spans="6:6">
-      <c r="F236" s="2"/>
-    </row>
-    <row r="237" spans="6:6">
-      <c r="F237" s="2"/>
-    </row>
-    <row r="238" spans="6:6">
-      <c r="F238" s="2"/>
-    </row>
-    <row r="239" spans="6:6">
-      <c r="F239" s="2"/>
-    </row>
-    <row r="240" spans="6:6">
-      <c r="F240" s="2"/>
-    </row>
-    <row r="241" spans="6:6">
-      <c r="F241" s="2"/>
-    </row>
-    <row r="242" spans="6:6">
-      <c r="F242" s="2"/>
-    </row>
-    <row r="243" spans="6:6">
-      <c r="F243" s="2"/>
-    </row>
-    <row r="244" spans="6:6">
-      <c r="F244" s="2"/>
-    </row>
-    <row r="245" spans="6:6">
-      <c r="F245" s="2"/>
-    </row>
-    <row r="246" spans="6:6">
-      <c r="F246" s="2"/>
-    </row>
-    <row r="247" spans="6:6">
-      <c r="F247" s="2"/>
-    </row>
-    <row r="248" spans="6:6">
-      <c r="F248" s="2"/>
-    </row>
-    <row r="249" spans="6:6">
-      <c r="F249" s="2"/>
-    </row>
-    <row r="250" spans="6:6">
-      <c r="F250" s="2"/>
-    </row>
-    <row r="251" spans="6:6">
-      <c r="F251" s="2"/>
-    </row>
-    <row r="252" spans="6:6">
-      <c r="F252" s="2"/>
-    </row>
-    <row r="253" spans="6:6">
-      <c r="F253" s="2"/>
-    </row>
-    <row r="254" spans="6:6">
-      <c r="F254" s="2"/>
-    </row>
-    <row r="255" spans="6:6">
-      <c r="F255" s="2"/>
-    </row>
-    <row r="256" spans="6:6">
-      <c r="F256" s="2"/>
-    </row>
-    <row r="257" spans="6:6">
-      <c r="F257" s="2"/>
-    </row>
-    <row r="258" spans="6:6">
-      <c r="F258" s="2"/>
-    </row>
-    <row r="259" spans="6:6">
-      <c r="F259" s="2"/>
-    </row>
-    <row r="260" spans="6:6">
-      <c r="F260" s="2"/>
-    </row>
-    <row r="261" spans="6:6">
-      <c r="F261" s="2"/>
-    </row>
-    <row r="262" spans="6:6">
-      <c r="F262" s="2"/>
-    </row>
-    <row r="263" spans="6:6">
-      <c r="F263" s="2"/>
-    </row>
-    <row r="264" spans="6:6">
-      <c r="F264" s="2"/>
-    </row>
-    <row r="265" spans="6:6">
-      <c r="F265" s="2"/>
-    </row>
-    <row r="266" spans="6:6">
-      <c r="F266" s="2"/>
-    </row>
-    <row r="267" spans="6:6">
-      <c r="F267" s="2"/>
-    </row>
-    <row r="268" spans="6:6">
-      <c r="F268" s="2"/>
-    </row>
-    <row r="269" spans="6:6">
-      <c r="F269" s="2"/>
-    </row>
-    <row r="270" spans="6:6">
-      <c r="F270" s="2"/>
-    </row>
-    <row r="271" spans="6:6">
-      <c r="F271" s="2"/>
-    </row>
-    <row r="272" spans="6:6">
-      <c r="F272" s="2"/>
-    </row>
-    <row r="273" spans="6:6">
-      <c r="F273" s="2"/>
-    </row>
-    <row r="274" spans="6:6">
-      <c r="F274" s="2"/>
-    </row>
-    <row r="275" spans="6:6">
-      <c r="F275" s="2"/>
-    </row>
-    <row r="276" spans="6:6">
-      <c r="F276" s="2"/>
-    </row>
-    <row r="277" spans="6:6">
-      <c r="F277" s="2"/>
-    </row>
-    <row r="278" spans="6:6">
-      <c r="F278" s="2"/>
-    </row>
-    <row r="279" spans="6:6">
-      <c r="F279" s="2"/>
-    </row>
-    <row r="280" spans="6:6">
-      <c r="F280" s="2"/>
-    </row>
-    <row r="281" spans="6:6">
-      <c r="F281" s="2"/>
-    </row>
-    <row r="282" spans="6:6">
-      <c r="F282" s="2"/>
-    </row>
-    <row r="283" spans="6:6">
-      <c r="F283" s="2"/>
-    </row>
-    <row r="284" spans="6:6">
-      <c r="F284" s="2"/>
-    </row>
-    <row r="285" spans="6:6">
-      <c r="F285" s="2"/>
-    </row>
-    <row r="286" spans="6:6">
-      <c r="F286" s="2"/>
-    </row>
-    <row r="287" spans="6:6">
-      <c r="F287" s="2"/>
-    </row>
-    <row r="288" spans="6:6">
-      <c r="F288" s="2"/>
-    </row>
-    <row r="289" spans="6:6">
-      <c r="F289" s="2"/>
-    </row>
-    <row r="290" spans="6:6">
-      <c r="F290" s="2"/>
-    </row>
-    <row r="291" spans="6:6">
-      <c r="F291" s="2"/>
-    </row>
-    <row r="292" spans="6:6">
-      <c r="F292" s="2"/>
-    </row>
-    <row r="293" spans="6:6">
-      <c r="F293" s="2"/>
-    </row>
-    <row r="294" spans="6:6">
-      <c r="F294" s="2"/>
-    </row>
-    <row r="295" spans="6:6">
-      <c r="F295" s="2"/>
-    </row>
-    <row r="296" spans="6:6">
-      <c r="F296" s="2"/>
-    </row>
-    <row r="297" spans="6:6">
-      <c r="F297" s="2"/>
-    </row>
-    <row r="298" spans="6:6">
-      <c r="F298" s="2"/>
-    </row>
-    <row r="299" spans="6:6">
-      <c r="F299" s="2"/>
-    </row>
-    <row r="300" spans="6:6">
-      <c r="F300" s="2"/>
-    </row>
-    <row r="301" spans="6:6">
-      <c r="F301" s="2"/>
-    </row>
-    <row r="302" spans="6:6">
-      <c r="F302" s="2"/>
-    </row>
-    <row r="303" spans="6:6">
-      <c r="F303" s="2"/>
-    </row>
-    <row r="304" spans="6:6">
-      <c r="F304" s="2"/>
-    </row>
-    <row r="305" spans="6:6">
-      <c r="F305" s="2"/>
-    </row>
-    <row r="306" spans="6:6">
-      <c r="F306" s="2"/>
-    </row>
-    <row r="307" spans="6:6">
-      <c r="F307" s="2"/>
-    </row>
-    <row r="308" spans="6:6">
-      <c r="F308" s="2"/>
-    </row>
-    <row r="309" spans="6:6">
-      <c r="F309" s="2"/>
-    </row>
-    <row r="310" spans="6:6">
-      <c r="F310" s="2"/>
-    </row>
-    <row r="311" spans="6:6">
-      <c r="F311" s="2"/>
-    </row>
-    <row r="312" spans="6:6">
-      <c r="F312" s="2"/>
-    </row>
-    <row r="313" spans="6:6">
-      <c r="F313" s="2"/>
-    </row>
-    <row r="314" spans="6:6">
-      <c r="F314" s="2"/>
-    </row>
-    <row r="315" spans="6:6">
-      <c r="F315" s="2"/>
-    </row>
-    <row r="316" spans="6:6">
-      <c r="F316" s="2"/>
-    </row>
-    <row r="317" spans="6:6">
-      <c r="F317" s="2"/>
-    </row>
-    <row r="318" spans="6:6">
-      <c r="F318" s="2"/>
-    </row>
-    <row r="319" spans="6:6">
-      <c r="F319" s="2"/>
-    </row>
-    <row r="320" spans="6:6">
-      <c r="F320" s="2"/>
-    </row>
-    <row r="321" spans="6:6">
-      <c r="F321" s="2"/>
-    </row>
-    <row r="322" spans="6:6">
-      <c r="F322" s="2"/>
-    </row>
-    <row r="323" spans="6:6">
-      <c r="F323" s="2"/>
-    </row>
-    <row r="324" spans="6:6">
-      <c r="F324" s="2"/>
-    </row>
-    <row r="325" spans="6:6">
-      <c r="F325" s="2"/>
-    </row>
-    <row r="326" spans="6:6">
-      <c r="F326" s="2"/>
-    </row>
-    <row r="327" spans="6:6">
-      <c r="F327" s="2"/>
-    </row>
-    <row r="328" spans="6:6">
-      <c r="F328" s="2"/>
-    </row>
-    <row r="329" spans="6:6">
-      <c r="F329" s="2"/>
-    </row>
-    <row r="330" spans="6:6">
-      <c r="F330" s="2"/>
-    </row>
-    <row r="331" spans="6:6">
-      <c r="F331" s="2"/>
-    </row>
-    <row r="332" spans="6:6">
-      <c r="F332" s="2"/>
-    </row>
-    <row r="333" spans="6:6">
-      <c r="F333" s="2"/>
-    </row>
-    <row r="334" spans="6:6">
-      <c r="F334" s="2"/>
-    </row>
-    <row r="335" spans="6:6">
-      <c r="F335" s="2"/>
-    </row>
-    <row r="336" spans="6:6">
-      <c r="F336" s="2"/>
-    </row>
-    <row r="337" spans="6:6">
-      <c r="F337" s="2"/>
-    </row>
-    <row r="338" spans="6:6">
-      <c r="F338" s="2"/>
-    </row>
-    <row r="339" spans="6:6">
-      <c r="F339" s="2"/>
-    </row>
-    <row r="340" spans="6:6">
-      <c r="F340" s="2"/>
-    </row>
-    <row r="341" spans="6:6">
-      <c r="F341" s="2"/>
-    </row>
-    <row r="342" spans="6:6">
-      <c r="F342" s="2"/>
-    </row>
-    <row r="343" spans="6:6">
-      <c r="F343" s="2"/>
-    </row>
-    <row r="344" spans="6:6">
-      <c r="F344" s="2"/>
-    </row>
-    <row r="345" spans="6:6">
-      <c r="F345" s="2"/>
-    </row>
-    <row r="346" spans="6:6">
-      <c r="F346" s="2"/>
-    </row>
-    <row r="347" spans="6:6">
-      <c r="F347" s="2"/>
-    </row>
-    <row r="348" spans="6:6">
-      <c r="F348" s="2"/>
-    </row>
-    <row r="349" spans="6:6">
-      <c r="F349" s="2"/>
-    </row>
-    <row r="350" spans="6:6">
-      <c r="F350" s="2"/>
-    </row>
-    <row r="351" spans="6:6">
-      <c r="F351" s="2"/>
-    </row>
-    <row r="352" spans="6:6">
-      <c r="F352" s="2"/>
-    </row>
-    <row r="353" spans="6:6">
-      <c r="F353" s="2"/>
-    </row>
-    <row r="354" spans="6:6">
-      <c r="F354" s="2"/>
-    </row>
-    <row r="355" spans="6:6">
-      <c r="F355" s="2"/>
-    </row>
-    <row r="356" spans="6:6">
-      <c r="F356" s="2"/>
-    </row>
-    <row r="357" spans="6:6">
-      <c r="F357" s="2"/>
-    </row>
-    <row r="358" spans="6:6">
-      <c r="F358" s="2"/>
-    </row>
-    <row r="359" spans="6:6">
-      <c r="F359" s="2"/>
-    </row>
-    <row r="360" spans="6:6">
-      <c r="F360" s="2"/>
-    </row>
-    <row r="361" spans="6:6">
-      <c r="F361" s="2"/>
-    </row>
-    <row r="362" spans="6:6">
-      <c r="F362" s="2"/>
-    </row>
-    <row r="363" spans="6:6">
-      <c r="F363" s="2"/>
-    </row>
-    <row r="364" spans="6:6">
-      <c r="F364" s="2"/>
-    </row>
-    <row r="365" spans="6:6">
-      <c r="F365" s="2"/>
-    </row>
-    <row r="366" spans="6:6">
-      <c r="F366" s="2"/>
-    </row>
-    <row r="367" spans="6:6">
-      <c r="F367" s="2"/>
-    </row>
-    <row r="368" spans="6:6">
-      <c r="F368" s="2"/>
-    </row>
-    <row r="369" spans="6:6">
-      <c r="F369" s="2"/>
-    </row>
-    <row r="370" spans="6:6">
-      <c r="F370" s="2"/>
-    </row>
-    <row r="371" spans="6:6">
-      <c r="F371" s="2"/>
-    </row>
-    <row r="372" spans="6:6">
-      <c r="F372" s="2"/>
-    </row>
-    <row r="373" spans="6:6">
-      <c r="F373" s="2"/>
-    </row>
-    <row r="374" spans="6:6">
-      <c r="F374" s="2"/>
-    </row>
-    <row r="375" spans="6:6">
-      <c r="F375" s="2"/>
-    </row>
-    <row r="376" spans="6:6">
-      <c r="F376" s="2"/>
-    </row>
-    <row r="377" spans="6:6">
-      <c r="F377" s="2"/>
-    </row>
-    <row r="378" spans="6:6">
-      <c r="F378" s="2"/>
-    </row>
-    <row r="379" spans="6:6">
-      <c r="F379" s="2"/>
-    </row>
-    <row r="380" spans="6:6">
-      <c r="F380" s="2"/>
-    </row>
-    <row r="381" spans="6:6">
-      <c r="F381" s="2"/>
-    </row>
-    <row r="382" spans="6:6">
-      <c r="F382" s="2"/>
-    </row>
-    <row r="383" spans="6:6">
-      <c r="F383" s="2"/>
-    </row>
-    <row r="384" spans="6:6">
-      <c r="F384" s="2"/>
-    </row>
-    <row r="385" spans="6:6">
-      <c r="F385" s="2"/>
-    </row>
-    <row r="386" spans="6:6">
-      <c r="F386" s="2"/>
-    </row>
-    <row r="387" spans="6:6">
-      <c r="F387" s="2"/>
-    </row>
-    <row r="388" spans="6:6">
-      <c r="F388" s="2"/>
-    </row>
-    <row r="389" spans="6:6">
-      <c r="F389" s="2"/>
-    </row>
-    <row r="390" spans="6:6">
-      <c r="F390" s="2"/>
-    </row>
-    <row r="391" spans="6:6">
-      <c r="F391" s="2"/>
-    </row>
-    <row r="392" spans="6:6">
-      <c r="F392" s="2"/>
-    </row>
-    <row r="393" spans="6:6">
-      <c r="F393" s="2"/>
-    </row>
-    <row r="394" spans="6:6">
-      <c r="F394" s="2"/>
-    </row>
-    <row r="395" spans="6:6">
-      <c r="F395" s="2"/>
-    </row>
-    <row r="396" spans="6:6">
-      <c r="F396" s="2"/>
-    </row>
-    <row r="397" spans="6:6">
-      <c r="F397" s="2"/>
-    </row>
-    <row r="398" spans="6:6">
-      <c r="F398" s="2"/>
-    </row>
-    <row r="399" spans="6:6">
-      <c r="F399" s="2"/>
-    </row>
-    <row r="400" spans="6:6">
-      <c r="F400" s="2"/>
-    </row>
-    <row r="401" spans="6:6">
-      <c r="F401" s="2"/>
-    </row>
-    <row r="402" spans="6:6">
-      <c r="F402" s="2"/>
-    </row>
-    <row r="403" spans="6:6">
-      <c r="F403" s="2"/>
-    </row>
-    <row r="404" spans="6:6">
-      <c r="F404" s="2"/>
-    </row>
-    <row r="405" spans="6:6">
-      <c r="F405" s="2"/>
-    </row>
-    <row r="406" spans="6:6">
-      <c r="F406" s="2"/>
-    </row>
-    <row r="407" spans="6:6">
-      <c r="F407" s="2"/>
-    </row>
-    <row r="408" spans="6:6">
-      <c r="F408" s="2"/>
-    </row>
-    <row r="409" spans="6:6">
-      <c r="F409" s="2"/>
-    </row>
-    <row r="410" spans="6:6">
-      <c r="F410" s="2"/>
-    </row>
-    <row r="411" spans="6:6">
-      <c r="F411" s="2"/>
-    </row>
-    <row r="412" spans="6:6">
-      <c r="F412" s="2"/>
-    </row>
-    <row r="413" spans="6:6">
-      <c r="F413" s="2"/>
-    </row>
-    <row r="414" spans="6:6">
-      <c r="F414" s="2"/>
-    </row>
-    <row r="415" spans="6:6">
-      <c r="F415" s="2"/>
-    </row>
-    <row r="416" spans="6:6">
-      <c r="F416" s="2"/>
-    </row>
-    <row r="417" spans="6:6">
-      <c r="F417" s="2"/>
-    </row>
-    <row r="418" spans="6:6">
-      <c r="F418" s="2"/>
-    </row>
-    <row r="419" spans="6:6">
-      <c r="F419" s="2"/>
-    </row>
-    <row r="420" spans="6:6">
-      <c r="F420" s="2"/>
-    </row>
-    <row r="421" spans="6:6">
-      <c r="F421" s="2"/>
-    </row>
-    <row r="422" spans="6:6">
-      <c r="F422" s="2"/>
-    </row>
-    <row r="423" spans="6:6">
-      <c r="F423" s="2"/>
-    </row>
-    <row r="424" spans="6:6">
-      <c r="F424" s="2"/>
-    </row>
-    <row r="425" spans="6:6">
-      <c r="F425" s="2"/>
-    </row>
-    <row r="426" spans="6:6">
-      <c r="F426" s="2"/>
-    </row>
-    <row r="427" spans="6:6">
-      <c r="F427" s="2"/>
-    </row>
-    <row r="428" spans="6:6">
-      <c r="F428" s="2"/>
-    </row>
-    <row r="429" spans="6:6">
-      <c r="F429" s="2"/>
-    </row>
-    <row r="430" spans="6:6">
-      <c r="F430" s="2"/>
-    </row>
-    <row r="431" spans="6:6">
-      <c r="F431" s="2"/>
-    </row>
-    <row r="432" spans="6:6">
-      <c r="F432" s="2"/>
-    </row>
-    <row r="433" spans="6:6">
-      <c r="F433" s="2"/>
-    </row>
-    <row r="434" spans="6:6">
-      <c r="F434" s="2"/>
-    </row>
-    <row r="435" spans="6:6">
-      <c r="F435" s="2"/>
-    </row>
-    <row r="436" spans="6:6">
-      <c r="F436" s="2"/>
-    </row>
-    <row r="437" spans="6:6">
-      <c r="F437" s="2"/>
-    </row>
-    <row r="438" spans="6:6">
-      <c r="F438" s="2"/>
-    </row>
-    <row r="439" spans="6:6">
-      <c r="F439" s="2"/>
-    </row>
-    <row r="440" spans="6:6">
-      <c r="F440" s="2"/>
-    </row>
-    <row r="441" spans="6:6">
-      <c r="F441" s="2"/>
-    </row>
-    <row r="442" spans="6:6">
-      <c r="F442" s="2"/>
-    </row>
-    <row r="443" spans="6:6">
-      <c r="F443" s="2"/>
-    </row>
-    <row r="444" spans="6:6">
-      <c r="F444" s="2"/>
-    </row>
-    <row r="445" spans="6:6">
-      <c r="F445" s="2"/>
-    </row>
-    <row r="446" spans="6:6">
-      <c r="F446" s="2"/>
-    </row>
-    <row r="447" spans="6:6">
-      <c r="F447" s="2"/>
-    </row>
-    <row r="448" spans="6:6">
-      <c r="F448" s="2"/>
-    </row>
-    <row r="449" spans="6:6">
-      <c r="F449" s="2"/>
-    </row>
-    <row r="450" spans="6:6">
-      <c r="F450" s="2"/>
-    </row>
-    <row r="451" spans="6:6">
-      <c r="F451" s="2"/>
-    </row>
-    <row r="452" spans="6:6">
-      <c r="F452" s="2"/>
-    </row>
-    <row r="453" spans="6:6">
-      <c r="F453" s="2"/>
-    </row>
-    <row r="454" spans="6:6">
-      <c r="F454" s="2"/>
-    </row>
-    <row r="455" spans="6:6">
-      <c r="F455" s="2"/>
-    </row>
-    <row r="456" spans="6:6">
-      <c r="F456" s="2"/>
-    </row>
-    <row r="457" spans="6:6">
-      <c r="F457" s="2"/>
-    </row>
-    <row r="458" spans="6:6">
-      <c r="F458" s="2"/>
-    </row>
-    <row r="459" spans="6:6">
-      <c r="F459" s="2"/>
-    </row>
-    <row r="460" spans="6:6">
-      <c r="F460" s="2"/>
-    </row>
-    <row r="461" spans="6:6">
-      <c r="F461" s="2"/>
-    </row>
-    <row r="462" spans="6:6">
-      <c r="F462" s="2"/>
-    </row>
-    <row r="463" spans="6:6">
-      <c r="F463" s="2"/>
-    </row>
-    <row r="464" spans="6:6">
-      <c r="F464" s="2"/>
-    </row>
-    <row r="465" spans="6:6">
-      <c r="F465" s="2"/>
-    </row>
-    <row r="466" spans="6:6">
-      <c r="F466" s="2"/>
-    </row>
-    <row r="467" spans="6:6">
-      <c r="F467" s="2"/>
-    </row>
-    <row r="468" spans="6:6">
-      <c r="F468" s="2"/>
-    </row>
-    <row r="469" spans="6:6">
-      <c r="F469" s="2"/>
-    </row>
-    <row r="470" spans="6:6">
-      <c r="F470" s="2"/>
-    </row>
-    <row r="471" spans="6:6">
-      <c r="F471" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="66" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100FC273FBDB1AAC448BDBB3CA1302F22C6" ma:contentTypeVersion="3" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="3cf92efc90fd97c5548b5b3f6d259d45">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ebb82943-49da-4504-a2f3-a33fb2eb95f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73a7f945de27690f0e5612b79736f6f4" ns2:_="">
     <xsd:import namespace="ebb82943-49da-4504-a2f3-a33fb2eb95f1"/>
@@ -9365,23 +8184,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B598C8-19D1-49AB-8FBE-714634F86B57}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEE4DD3B-B570-46A6-8A59-06144B76CB8D}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE9AADE-FB5C-4FB3-84C8-574F5ABF077B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B598C8-19D1-49AB-8FBE-714634F86B57}"/>
 </file>